--- a/assets/docs/Exa_8.3D.xlsx
+++ b/assets/docs/Exa_8.3D.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/baa274beb3a24b9b/Documents/GitHub/Sanjaya/assets/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E25726-2B8A-4EC8-9322-22BA29CB0B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{B8E25726-2B8A-4EC8-9322-22BA29CB0B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F39070A-5536-4A28-8F9B-0E9C78BAB061}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -123,12 +121,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1889,32 +1887,4 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>
--- a/assets/docs/Exa_8.3D.xlsx
+++ b/assets/docs/Exa_8.3D.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -47,19 +50,19 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Frequencies</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Frequencies</t>
+    <t>Area 1</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
     <t>Percentages</t>
-  </si>
-  <si>
-    <t>Area 1</t>
   </si>
   <si>
     <t>Area 2</t>
@@ -72,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -438,12 +441,12 @@
       <selection activeCell="J87" sqref="J87"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <cols>
     <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="12.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,7 +454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -459,7 +462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="12.95">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -467,19 +470,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="12.95">
       <c r="A4" s="2">
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="12.95">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -488,10 +491,10 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="12.95">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -499,19 +502,19 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <f>COUNTIF(B2:B71,"A")</f>
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="12.95">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -521,7 +524,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="12.95">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -536,7 +539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="12.95">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -544,14 +547,14 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <f>SUM(E6:E8)</f>
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="12.95">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -560,7 +563,7 @@
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="12.95">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -569,7 +572,7 @@
       </c>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="12.95">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -577,10 +580,10 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="12.95">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -589,7 +592,7 @@
       </c>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="12.95">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -598,18 +601,18 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="12.95">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="5">
         <f>100*E6/E$9</f>
@@ -617,12 +620,12 @@
       </c>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" ht="12.95">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>2</v>
@@ -633,12 +636,12 @@
       </c>
       <c r="G16" s="6"/>
     </row>
-    <row r="17" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" ht="12.95">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
@@ -649,7 +652,7 @@
       </c>
       <c r="G17" s="6"/>
     </row>
-    <row r="18" spans="1:7" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" ht="12.95">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -657,7 +660,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2">
         <f>SUM(E15:E17)</f>
@@ -665,442 +668,442 @@
       </c>
       <c r="G18" s="6"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2">
+        <v>1</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="2">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="2">
+        <v>1</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="2">
+        <v>1</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="2">
+        <v>1</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="2">
+        <v>1</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="2">
+        <v>1</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="2">
+        <v>1</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="2">
+        <v>1</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="2">
+        <v>1</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2">
+        <v>1</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2">
+        <v>1</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2">
+        <v>1</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2">
+        <v>1</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2">
+        <v>1</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="2">
+        <v>1</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2">
+        <v>1</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="2">
+        <v>1</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2">
+        <v>1</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2">
+        <v>1</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2">
+        <v>1</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2">
+        <v>1</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2">
+        <v>1</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2">
+        <v>1</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2">
+        <v>1</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2">
+        <v>1</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2">
+        <v>1</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="2">
+        <v>1</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="2">
+        <v>1</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="2">
+        <v>1</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="2">
+        <v>1</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="2">
+        <v>1</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="2">
+        <v>1</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="2">
+        <v>1</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="2">
+        <v>1</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="2">
+        <v>1</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="2">
+        <v>1</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="2">
+        <v>1</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="2">
+        <v>1</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="2">
+        <v>1</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="2">
+        <v>1</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="2">
+        <v>1</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2">
+        <v>1</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2">
+        <v>1</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2">
+        <v>1</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="2">
+        <v>1</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="2">
+        <v>1</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="2">
+        <v>1</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="2">
+        <v>1</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2">
+        <v>2</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>1</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>1</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>1</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>1</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>1</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>1</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>1</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>1</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>1</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>1</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>1</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>1</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>1</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>1</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>1</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>1</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>1</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>1</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>1</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>1</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>1</v>
-      </c>
-      <c r="B44" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>1</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>1</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>1</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>1</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>1</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>1</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>1</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>1</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="2">
-        <v>1</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="2">
-        <v>1</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2">
-        <v>1</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="2">
-        <v>1</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="2">
-        <v>1</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="2">
-        <v>1</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2">
-        <v>1</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="2">
-        <v>1</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2">
-        <v>1</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="2">
-        <v>1</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="2">
-        <v>1</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2">
-        <v>1</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="2">
-        <v>1</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="2">
-        <v>1</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A67" s="2">
-        <v>1</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A68" s="2">
-        <v>1</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A69" s="2">
-        <v>1</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="2">
-        <v>1</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="2">
-        <v>1</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="2">
-        <v>2</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D72" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -1108,18 +1111,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5">
       <c r="A74" s="2">
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="12.95">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -1127,19 +1130,19 @@
         <v>3</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E75">
         <f>COUNTIF(B72:B161,"A")</f>
         <v>19</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="12.95">
       <c r="A76" s="2">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" s="4" t="s">
         <v>2</v>
@@ -1149,7 +1152,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="12.95">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -1164,7 +1167,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="12.95">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -1172,14 +1175,14 @@
         <v>3</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E78">
         <f>SUM(E75:E77)</f>
         <v>90</v>
       </c>
     </row>
-    <row r="79" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" ht="12.95">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -1188,7 +1191,7 @@
       </c>
       <c r="D79" s="4"/>
     </row>
-    <row r="80" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" ht="12.95">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -1197,7 +1200,7 @@
       </c>
       <c r="D80" s="4"/>
     </row>
-    <row r="81" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="12.95">
       <c r="A81" s="2">
         <v>2</v>
       </c>
@@ -1205,10 +1208,10 @@
         <v>2</v>
       </c>
       <c r="D81" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="12.95">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -1217,7 +1220,7 @@
       </c>
       <c r="D82" s="4"/>
     </row>
-    <row r="83" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="12.95">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -1229,7 +1232,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="12.95">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -1237,14 +1240,14 @@
         <v>2</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E84" s="8">
         <f>100*E75/E$78</f>
         <v>21.111111111111111</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="12.95">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="12.95">
       <c r="A86" s="2">
         <v>2</v>
       </c>
@@ -1274,22 +1277,22 @@
         <v>45.555555555555557</v>
       </c>
     </row>
-    <row r="87" spans="1:5" ht="13" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" ht="12.95">
       <c r="A87" s="2">
         <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E87" s="9">
         <f>SUM(E84:E86)</f>
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -1297,15 +1300,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5">
       <c r="A89" s="2">
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -1313,7 +1316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -1321,7 +1324,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -1329,7 +1332,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -1337,15 +1340,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5">
       <c r="A94" s="2">
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -1353,15 +1356,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5">
       <c r="A96" s="2">
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -1377,7 +1380,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -1385,7 +1388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -1393,7 +1396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -1401,7 +1404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -1417,7 +1420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -1425,7 +1428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -1433,23 +1436,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -1465,7 +1468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -1481,15 +1484,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -1497,7 +1500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -1505,7 +1508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -1513,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -1521,7 +1524,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -1529,7 +1532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -1537,7 +1540,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -1553,7 +1556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -1569,7 +1572,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -1577,7 +1580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -1585,7 +1588,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -1593,15 +1596,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -1609,7 +1612,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -1617,23 +1620,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -1649,7 +1652,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -1657,7 +1660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -1665,7 +1668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -1673,7 +1676,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -1681,7 +1684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -1689,15 +1692,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -1705,15 +1708,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -1721,7 +1724,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -1737,7 +1740,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -1745,7 +1748,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -1753,7 +1756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -1761,15 +1764,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -1777,15 +1780,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -1793,7 +1796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -1801,7 +1804,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -1809,7 +1812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -1825,15 +1828,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -1841,15 +1844,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -1857,7 +1860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -1865,7 +1868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -1873,7 +1876,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
